--- a/data/pca/factorExposure/factorExposure_2014-09-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.00625393040939212</v>
+        <v>0.01883204055527718</v>
       </c>
       <c r="C2">
-        <v>-0.1139867734487473</v>
+        <v>0.07131427711958566</v>
       </c>
       <c r="D2">
-        <v>0.001481680590576445</v>
+        <v>0.03174186053718533</v>
       </c>
       <c r="E2">
-        <v>0.232741742608755</v>
+        <v>-0.05457218534543887</v>
       </c>
       <c r="F2">
-        <v>0.0160208584496197</v>
+        <v>-0.1509479877915332</v>
       </c>
       <c r="G2">
-        <v>0.09434363953282958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0120465352575764</v>
+      </c>
+      <c r="H2">
+        <v>0.05929515513711681</v>
+      </c>
+      <c r="I2">
+        <v>-0.02989190716738656</v>
+      </c>
+      <c r="J2">
+        <v>-0.02662133589222441</v>
+      </c>
+      <c r="K2">
+        <v>-0.1738047779765223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01578576579145449</v>
+        <v>0.01801169714599041</v>
       </c>
       <c r="C4">
-        <v>-0.1636380176739625</v>
+        <v>0.1435363075398861</v>
       </c>
       <c r="D4">
-        <v>-0.003638656473200501</v>
+        <v>0.06032365562751083</v>
       </c>
       <c r="E4">
-        <v>0.06451715526365835</v>
+        <v>0.02662302159499102</v>
       </c>
       <c r="F4">
-        <v>-0.08785439099776911</v>
+        <v>-0.06466064229716063</v>
       </c>
       <c r="G4">
-        <v>0.007146403134613597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01907097464636586</v>
+      </c>
+      <c r="H4">
+        <v>0.09334582883495578</v>
+      </c>
+      <c r="I4">
+        <v>-0.1012620491661005</v>
+      </c>
+      <c r="J4">
+        <v>-0.07127807520853778</v>
+      </c>
+      <c r="K4">
+        <v>-0.1586884527242568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02400196042704933</v>
+        <v>0.0376811846047661</v>
       </c>
       <c r="C6">
-        <v>-0.07840141492372313</v>
+        <v>0.08649731328723308</v>
       </c>
       <c r="D6">
-        <v>-0.04687699734514802</v>
+        <v>0.03029048017156722</v>
       </c>
       <c r="E6">
-        <v>0.07026134598858411</v>
+        <v>-0.04501975320101705</v>
       </c>
       <c r="F6">
-        <v>-0.02293397466820071</v>
+        <v>-0.02715184399740238</v>
       </c>
       <c r="G6">
-        <v>-0.01343999541754561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04092559046352078</v>
+      </c>
+      <c r="H6">
+        <v>0.03086725130912516</v>
+      </c>
+      <c r="I6">
+        <v>-0.002270185328334035</v>
+      </c>
+      <c r="J6">
+        <v>0.09019142974895444</v>
+      </c>
+      <c r="K6">
+        <v>-0.0859227556811074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0002715598154724449</v>
+        <v>0.01801522966363008</v>
       </c>
       <c r="C7">
-        <v>-0.06411576857710725</v>
+        <v>0.07275941336151699</v>
       </c>
       <c r="D7">
-        <v>-0.02875911754148684</v>
+        <v>0.02703639154252263</v>
       </c>
       <c r="E7">
-        <v>0.02424390651506831</v>
+        <v>0.01669997270430624</v>
       </c>
       <c r="F7">
-        <v>-0.04950116528641567</v>
+        <v>0.003123020165848076</v>
       </c>
       <c r="G7">
-        <v>-0.01597687111725176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03850074821469666</v>
+      </c>
+      <c r="H7">
+        <v>0.09799697960543698</v>
+      </c>
+      <c r="I7">
+        <v>-0.02669214634308368</v>
+      </c>
+      <c r="J7">
+        <v>-0.002961763949414589</v>
+      </c>
+      <c r="K7">
+        <v>-0.03248596901171596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.008879332937201837</v>
+        <v>0.0004594361517257978</v>
       </c>
       <c r="C8">
-        <v>-0.07551292126085039</v>
+        <v>0.06194779626291305</v>
       </c>
       <c r="D8">
-        <v>-0.02440145779885516</v>
+        <v>0.04205234959588249</v>
       </c>
       <c r="E8">
-        <v>0.07749429294622963</v>
+        <v>-0.008172784824166918</v>
       </c>
       <c r="F8">
-        <v>-0.04003008441289367</v>
+        <v>-0.06105261556946332</v>
       </c>
       <c r="G8">
-        <v>0.02919249975873189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01929825629609274</v>
+      </c>
+      <c r="H8">
+        <v>0.0609736583896376</v>
+      </c>
+      <c r="I8">
+        <v>-0.0185878874442025</v>
+      </c>
+      <c r="J8">
+        <v>-0.000201707274245044</v>
+      </c>
+      <c r="K8">
+        <v>0.01082757298199135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.007460613504369374</v>
+        <v>0.01379271478816885</v>
       </c>
       <c r="C9">
-        <v>-0.1223364132560881</v>
+        <v>0.1027745942091538</v>
       </c>
       <c r="D9">
-        <v>-0.0318280821066174</v>
+        <v>0.04353540396306235</v>
       </c>
       <c r="E9">
-        <v>0.02832458879211753</v>
+        <v>0.004551786048885633</v>
       </c>
       <c r="F9">
-        <v>-0.03462805992307937</v>
+        <v>-0.03008916907956461</v>
       </c>
       <c r="G9">
-        <v>-0.03027918602318086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.004862247839448907</v>
+      </c>
+      <c r="H9">
+        <v>0.09006843635987798</v>
+      </c>
+      <c r="I9">
+        <v>-0.06885971681230019</v>
+      </c>
+      <c r="J9">
+        <v>-0.02183490680505598</v>
+      </c>
+      <c r="K9">
+        <v>-0.07067597326144974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.276709205408725</v>
+        <v>0.2467928392010726</v>
       </c>
       <c r="C10">
-        <v>0.08427202685579425</v>
+        <v>-0.0908220293666239</v>
       </c>
       <c r="D10">
-        <v>0.02215618198990571</v>
+        <v>-0.004087372611170537</v>
       </c>
       <c r="E10">
-        <v>-0.03605265510563432</v>
+        <v>-0.01187730442223598</v>
       </c>
       <c r="F10">
-        <v>0.0007987216600455816</v>
+        <v>0.002265541820834663</v>
       </c>
       <c r="G10">
-        <v>-0.02578274795905338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02745631082761985</v>
+      </c>
+      <c r="H10">
+        <v>0.03495113879865057</v>
+      </c>
+      <c r="I10">
+        <v>0.01478509716863453</v>
+      </c>
+      <c r="J10">
+        <v>-0.1805797658815534</v>
+      </c>
+      <c r="K10">
+        <v>0.1016229508720525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.005925734934762505</v>
+        <v>0.01675524480119418</v>
       </c>
       <c r="C11">
-        <v>-0.06993513950347316</v>
+        <v>0.08310540640053765</v>
       </c>
       <c r="D11">
-        <v>-0.02569699766574794</v>
+        <v>0.03862697038112477</v>
       </c>
       <c r="E11">
-        <v>-0.01729577690775254</v>
+        <v>0.003094073384276185</v>
       </c>
       <c r="F11">
-        <v>-0.01512832816254325</v>
+        <v>0.01530613410803022</v>
       </c>
       <c r="G11">
-        <v>-0.03896375132224863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008288497405037697</v>
+      </c>
+      <c r="H11">
+        <v>0.02831504387867334</v>
+      </c>
+      <c r="I11">
+        <v>-0.01857726174534834</v>
+      </c>
+      <c r="J11">
+        <v>0.02086857743321678</v>
+      </c>
+      <c r="K11">
+        <v>0.01348338982791501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.005103991771871178</v>
+        <v>0.01630813381399862</v>
       </c>
       <c r="C12">
-        <v>-0.04843259276499912</v>
+        <v>0.05545029498325302</v>
       </c>
       <c r="D12">
-        <v>-0.03092559327347809</v>
+        <v>0.02276793270160615</v>
       </c>
       <c r="E12">
-        <v>-0.00684726301162967</v>
+        <v>-0.01840823815813204</v>
       </c>
       <c r="F12">
-        <v>0.01073397542126</v>
+        <v>0.0144126467963798</v>
       </c>
       <c r="G12">
-        <v>-0.05549472223159552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02648805653437662</v>
+      </c>
+      <c r="H12">
+        <v>0.02571476415714305</v>
+      </c>
+      <c r="I12">
+        <v>-0.01518866411453802</v>
+      </c>
+      <c r="J12">
+        <v>0.01348794741360368</v>
+      </c>
+      <c r="K12">
+        <v>0.0007283264220359013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01550897324665157</v>
+        <v>0.00671577380561174</v>
       </c>
       <c r="C13">
-        <v>-0.1262324953341012</v>
+        <v>0.122113258847183</v>
       </c>
       <c r="D13">
-        <v>-0.04853644672271747</v>
+        <v>0.04050479978378405</v>
       </c>
       <c r="E13">
-        <v>0.05979044841300283</v>
+        <v>-0.1191712041337476</v>
       </c>
       <c r="F13">
-        <v>0.03073838757722637</v>
+        <v>-0.1070126023157929</v>
       </c>
       <c r="G13">
-        <v>-0.1644712245958412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1193110087729124</v>
+      </c>
+      <c r="H13">
+        <v>0.1325366261736429</v>
+      </c>
+      <c r="I13">
+        <v>0.1796189209081433</v>
+      </c>
+      <c r="J13">
+        <v>-0.1323666307418852</v>
+      </c>
+      <c r="K13">
+        <v>0.2123841815556691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.007548165773957873</v>
+        <v>0.019337149806055</v>
       </c>
       <c r="C14">
-        <v>-0.06960776876836752</v>
+        <v>0.07483053461854981</v>
       </c>
       <c r="D14">
-        <v>-0.0264502431575429</v>
+        <v>0.04940781939139959</v>
       </c>
       <c r="E14">
-        <v>0.03894347767066583</v>
+        <v>-0.04741259809479291</v>
       </c>
       <c r="F14">
-        <v>0.006400804098142505</v>
+        <v>0.001668210889563948</v>
       </c>
       <c r="G14">
-        <v>-0.05185543296901121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07763214168668509</v>
+      </c>
+      <c r="H14">
+        <v>0.2066447354131521</v>
+      </c>
+      <c r="I14">
+        <v>0.008747448089030335</v>
+      </c>
+      <c r="J14">
+        <v>0.04183119332410155</v>
+      </c>
+      <c r="K14">
+        <v>0.1183801848945192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.009339574295410703</v>
+        <v>0.004647964465012359</v>
       </c>
       <c r="C15">
-        <v>-0.104696886555224</v>
+        <v>0.08430772545042807</v>
       </c>
       <c r="D15">
-        <v>-0.04171194258629062</v>
+        <v>0.03699522618417763</v>
       </c>
       <c r="E15">
-        <v>0.05399049254838435</v>
+        <v>0.0005774937096680669</v>
       </c>
       <c r="F15">
-        <v>-0.02645096343843644</v>
+        <v>-0.02413752048674483</v>
       </c>
       <c r="G15">
-        <v>-0.03336965782540432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02533652635592024</v>
+      </c>
+      <c r="H15">
+        <v>0.09384940412999532</v>
+      </c>
+      <c r="I15">
+        <v>-0.02593700462841212</v>
+      </c>
+      <c r="J15">
+        <v>0.01989922207712925</v>
+      </c>
+      <c r="K15">
+        <v>0.06982729043368524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.009276817593985897</v>
+        <v>0.01560689908900656</v>
       </c>
       <c r="C16">
-        <v>-0.05961086196113802</v>
+        <v>0.06257255355290565</v>
       </c>
       <c r="D16">
-        <v>-0.01824913732269108</v>
+        <v>0.02714262986326246</v>
       </c>
       <c r="E16">
-        <v>-0.01061844260372269</v>
+        <v>0.0002482687666763865</v>
       </c>
       <c r="F16">
-        <v>0.003363570333346087</v>
+        <v>0.00995969522748074</v>
       </c>
       <c r="G16">
-        <v>-0.02793378947892725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.008521005346698496</v>
+      </c>
+      <c r="H16">
+        <v>0.02110046300828578</v>
+      </c>
+      <c r="I16">
+        <v>-0.01691973611420778</v>
+      </c>
+      <c r="J16">
+        <v>0.01518616974350304</v>
+      </c>
+      <c r="K16">
+        <v>-0.002719896235129443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01309545504248137</v>
+        <v>0.01540516226190966</v>
       </c>
       <c r="C20">
-        <v>-0.09130153939195941</v>
+        <v>0.08713686048917167</v>
       </c>
       <c r="D20">
-        <v>-0.02147745399174962</v>
+        <v>0.02571477504653084</v>
       </c>
       <c r="E20">
-        <v>-0.01226920316109157</v>
+        <v>0.02137736050772112</v>
       </c>
       <c r="F20">
-        <v>-0.04079052593828573</v>
+        <v>0.009557148626027075</v>
       </c>
       <c r="G20">
-        <v>-0.08875587913928125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03764465652278582</v>
+      </c>
+      <c r="H20">
+        <v>0.07192285426898579</v>
+      </c>
+      <c r="I20">
+        <v>-0.02167589162206602</v>
+      </c>
+      <c r="J20">
+        <v>0.01154950617833396</v>
+      </c>
+      <c r="K20">
+        <v>-0.008198513960971201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002724756921909894</v>
+        <v>0.01411875731254621</v>
       </c>
       <c r="C21">
-        <v>-0.1026914413630903</v>
+        <v>0.07440780762921946</v>
       </c>
       <c r="D21">
-        <v>0.03241497413055223</v>
+        <v>0.02091653364779924</v>
       </c>
       <c r="E21">
-        <v>0.0592263467824793</v>
+        <v>-0.09643914753392113</v>
       </c>
       <c r="F21">
-        <v>0.03614047644992426</v>
+        <v>-0.02154007600821095</v>
       </c>
       <c r="G21">
-        <v>-0.04256559254857962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03049744596372687</v>
+      </c>
+      <c r="H21">
+        <v>0.1384768185697033</v>
+      </c>
+      <c r="I21">
+        <v>0.0463237546160168</v>
+      </c>
+      <c r="J21">
+        <v>-0.001704025739040176</v>
+      </c>
+      <c r="K21">
+        <v>0.03611463182213414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.03744264648033667</v>
+        <v>0.007610735610237406</v>
       </c>
       <c r="C22">
-        <v>-0.2198450632806651</v>
+        <v>0.1791310547020934</v>
       </c>
       <c r="D22">
-        <v>0.08581733857012777</v>
+        <v>0.01883427386890145</v>
       </c>
       <c r="E22">
-        <v>0.2632230090530839</v>
+        <v>0.102515657763125</v>
       </c>
       <c r="F22">
-        <v>-0.226715199435239</v>
+        <v>-0.5252821346447665</v>
       </c>
       <c r="G22">
-        <v>0.1240115112111404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.006837246145271215</v>
+      </c>
+      <c r="H22">
+        <v>-0.3015949680270926</v>
+      </c>
+      <c r="I22">
+        <v>0.05135647334703562</v>
+      </c>
+      <c r="J22">
+        <v>0.02286895498268572</v>
+      </c>
+      <c r="K22">
+        <v>0.1798558635986819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.03690213359977382</v>
+        <v>0.01265106399097611</v>
       </c>
       <c r="C23">
-        <v>-0.2203355183145287</v>
+        <v>0.1824710505525397</v>
       </c>
       <c r="D23">
-        <v>0.0855645213834202</v>
+        <v>0.01875428204856351</v>
       </c>
       <c r="E23">
-        <v>0.2595874810045442</v>
+        <v>0.09743531380164695</v>
       </c>
       <c r="F23">
-        <v>-0.2240275030807342</v>
+        <v>-0.5083924147522718</v>
       </c>
       <c r="G23">
-        <v>0.1235843343523459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.004538175927064981</v>
+      </c>
+      <c r="H23">
+        <v>-0.2813457462354467</v>
+      </c>
+      <c r="I23">
+        <v>0.04391823830149651</v>
+      </c>
+      <c r="J23">
+        <v>0.02498127291483015</v>
+      </c>
+      <c r="K23">
+        <v>0.1685042437050896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.004123628649031406</v>
+        <v>0.01681898361664544</v>
       </c>
       <c r="C24">
-        <v>-0.05781389447509096</v>
+        <v>0.06655799192743334</v>
       </c>
       <c r="D24">
-        <v>-0.03918542490686011</v>
+        <v>0.03970094565098346</v>
       </c>
       <c r="E24">
-        <v>-0.009054523161780251</v>
+        <v>0.00224292061839256</v>
       </c>
       <c r="F24">
-        <v>-0.009455054883818266</v>
+        <v>0.009710476107882738</v>
       </c>
       <c r="G24">
-        <v>-0.05242060242507283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02393231251479624</v>
+      </c>
+      <c r="H24">
+        <v>0.03780307670318597</v>
+      </c>
+      <c r="I24">
+        <v>-0.02190344279055603</v>
+      </c>
+      <c r="J24">
+        <v>0.01530029422679235</v>
+      </c>
+      <c r="K24">
+        <v>0.005325803364668237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.006200431506904927</v>
+        <v>0.02095439392659496</v>
       </c>
       <c r="C25">
-        <v>-0.06628416889007176</v>
+        <v>0.0700903813560607</v>
       </c>
       <c r="D25">
-        <v>-0.01841725352343234</v>
+        <v>0.02980554226610851</v>
       </c>
       <c r="E25">
-        <v>-0.01637785152809562</v>
+        <v>0.004411683438570057</v>
       </c>
       <c r="F25">
-        <v>-0.00747852807427975</v>
+        <v>0.008930425115636301</v>
       </c>
       <c r="G25">
-        <v>-0.05108140724568144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01852293835461866</v>
+      </c>
+      <c r="H25">
+        <v>0.03262085124066101</v>
+      </c>
+      <c r="I25">
+        <v>-0.01983723950765954</v>
+      </c>
+      <c r="J25">
+        <v>0.003154446996527647</v>
+      </c>
+      <c r="K25">
+        <v>0.01830279828222621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.004878988061853199</v>
+        <v>0.02440392199453788</v>
       </c>
       <c r="C26">
-        <v>-0.06152930917164</v>
+        <v>0.05870353137074859</v>
       </c>
       <c r="D26">
-        <v>-0.05613048396675439</v>
+        <v>0.06443220944084123</v>
       </c>
       <c r="E26">
-        <v>0.01724100609685356</v>
+        <v>0.00246797067252293</v>
       </c>
       <c r="F26">
-        <v>0.01136439041674942</v>
+        <v>0.01871899030438428</v>
       </c>
       <c r="G26">
-        <v>-0.02531464284711936</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.00187782225071174</v>
+      </c>
+      <c r="H26">
+        <v>0.09743886282641478</v>
+      </c>
+      <c r="I26">
+        <v>-0.07451695756021245</v>
+      </c>
+      <c r="J26">
+        <v>0.01559552649894755</v>
+      </c>
+      <c r="K26">
+        <v>-0.1137324428157803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3743824779344151</v>
+        <v>0.3158994864167381</v>
       </c>
       <c r="C28">
-        <v>0.09741395349800432</v>
+        <v>-0.1076294232387672</v>
       </c>
       <c r="D28">
-        <v>0.02148160859591866</v>
+        <v>-0.03128657033148614</v>
       </c>
       <c r="E28">
-        <v>-0.07943089223870509</v>
+        <v>-0.01095329418738495</v>
       </c>
       <c r="F28">
-        <v>0.08593701306849669</v>
+        <v>-0.04238754594860893</v>
       </c>
       <c r="G28">
-        <v>0.03794376697984062</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1231329687738678</v>
+      </c>
+      <c r="H28">
+        <v>0.05414827671362572</v>
+      </c>
+      <c r="I28">
+        <v>0.08836540403241579</v>
+      </c>
+      <c r="J28">
+        <v>-0.1998946893852851</v>
+      </c>
+      <c r="K28">
+        <v>-0.01985385076035655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.007144334547286645</v>
+        <v>0.01388023403420774</v>
       </c>
       <c r="C29">
-        <v>-0.07422840743085191</v>
+        <v>0.08163862044153831</v>
       </c>
       <c r="D29">
-        <v>-0.04145591472516703</v>
+        <v>0.05451075545828865</v>
       </c>
       <c r="E29">
-        <v>0.03653768728631638</v>
+        <v>-0.05084264902637842</v>
       </c>
       <c r="F29">
-        <v>0.001145959004598787</v>
+        <v>-0.005524059894545462</v>
       </c>
       <c r="G29">
-        <v>-0.08859020406673131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1187772437525176</v>
+      </c>
+      <c r="H29">
+        <v>0.2925631155354985</v>
+      </c>
+      <c r="I29">
+        <v>0.01561166804086945</v>
+      </c>
+      <c r="J29">
+        <v>0.02914056781554789</v>
+      </c>
+      <c r="K29">
+        <v>0.1855988103254601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02879015939433814</v>
+        <v>0.03176282691002989</v>
       </c>
       <c r="C30">
-        <v>-0.1792587483537464</v>
+        <v>0.1460763622503556</v>
       </c>
       <c r="D30">
-        <v>-0.058012332429006</v>
+        <v>0.05709229578245711</v>
       </c>
       <c r="E30">
-        <v>0.03599025633595933</v>
+        <v>0.01451662644615033</v>
       </c>
       <c r="F30">
-        <v>-0.05252384667867335</v>
+        <v>-0.06351309237406869</v>
       </c>
       <c r="G30">
-        <v>-0.01088303424481707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01044138580206892</v>
+      </c>
+      <c r="H30">
+        <v>0.03549011947588786</v>
+      </c>
+      <c r="I30">
+        <v>-0.043975517400467</v>
+      </c>
+      <c r="J30">
+        <v>0.02542638527050803</v>
+      </c>
+      <c r="K30">
+        <v>-0.08613573354987798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004044076945651749</v>
+        <v>0.01356932864779629</v>
       </c>
       <c r="C31">
-        <v>-0.05574117799268816</v>
+        <v>0.0799539006711751</v>
       </c>
       <c r="D31">
-        <v>-0.03586526171524966</v>
+        <v>0.04134833926075557</v>
       </c>
       <c r="E31">
-        <v>-0.01460417721185509</v>
+        <v>-0.002705584718306857</v>
       </c>
       <c r="F31">
-        <v>0.0104671087960232</v>
+        <v>0.003288848640306846</v>
       </c>
       <c r="G31">
-        <v>-0.01137325655209621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02645595225199435</v>
+      </c>
+      <c r="H31">
+        <v>0.03402584711864737</v>
+      </c>
+      <c r="I31">
+        <v>-0.02032153288280166</v>
+      </c>
+      <c r="J31">
+        <v>0.008033857220397261</v>
+      </c>
+      <c r="K31">
+        <v>0.02937764708052226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01932034893028024</v>
+        <v>0.02176734654162287</v>
       </c>
       <c r="C32">
-        <v>-0.08168141168995648</v>
+        <v>0.05169005774893788</v>
       </c>
       <c r="D32">
-        <v>0.008165297411935618</v>
+        <v>0.01906743825199523</v>
       </c>
       <c r="E32">
-        <v>0.1609719412085652</v>
+        <v>-0.05868232546503054</v>
       </c>
       <c r="F32">
-        <v>-0.02887234279156925</v>
+        <v>-0.1035886131223698</v>
       </c>
       <c r="G32">
-        <v>-0.05457912692314323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06596330394167683</v>
+      </c>
+      <c r="H32">
+        <v>0.1647420781075136</v>
+      </c>
+      <c r="I32">
+        <v>0.1457549336218053</v>
+      </c>
+      <c r="J32">
+        <v>-0.2132636451846966</v>
+      </c>
+      <c r="K32">
+        <v>0.02902848807305189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01477137761527883</v>
+        <v>0.01753880864700418</v>
       </c>
       <c r="C33">
-        <v>-0.090449863712828</v>
+        <v>0.1059611819276417</v>
       </c>
       <c r="D33">
-        <v>-0.06220984010805704</v>
+        <v>0.05033961936868436</v>
       </c>
       <c r="E33">
-        <v>0.01565198683609226</v>
+        <v>0.003534167515688835</v>
       </c>
       <c r="F33">
-        <v>0.00172209105840685</v>
+        <v>-0.01276434779851106</v>
       </c>
       <c r="G33">
-        <v>-0.02692272517297098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02291359639236665</v>
+      </c>
+      <c r="H33">
+        <v>0.05223852203446166</v>
+      </c>
+      <c r="I33">
+        <v>-0.02125439768580048</v>
+      </c>
+      <c r="J33">
+        <v>-0.02457551950940811</v>
+      </c>
+      <c r="K33">
+        <v>0.003426069376582578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.001531030901041437</v>
+        <v>0.01621038691883487</v>
       </c>
       <c r="C34">
-        <v>-0.04975179071552071</v>
+        <v>0.04908059486592827</v>
       </c>
       <c r="D34">
-        <v>-0.02241321659349425</v>
+        <v>0.02039612187897512</v>
       </c>
       <c r="E34">
-        <v>0.00345868207421474</v>
+        <v>-0.006925119905498669</v>
       </c>
       <c r="F34">
-        <v>0.01018151137214236</v>
+        <v>0.01182029246239213</v>
       </c>
       <c r="G34">
-        <v>-0.03319941304613476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01560365711861912</v>
+      </c>
+      <c r="H34">
+        <v>0.00684560289067497</v>
+      </c>
+      <c r="I34">
+        <v>-0.02193700454953198</v>
+      </c>
+      <c r="J34">
+        <v>0.008793431385343733</v>
+      </c>
+      <c r="K34">
+        <v>0.005964612651796555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003207988682186231</v>
+        <v>0.0103397754992964</v>
       </c>
       <c r="C35">
-        <v>-0.0233429341600711</v>
+        <v>0.04303752503575689</v>
       </c>
       <c r="D35">
-        <v>-0.006743361658408597</v>
+        <v>0.02200746157565658</v>
       </c>
       <c r="E35">
-        <v>0.01010744353447996</v>
+        <v>-0.01261754805821403</v>
       </c>
       <c r="F35">
-        <v>-0.002929353424714932</v>
+        <v>-0.004984623265380895</v>
       </c>
       <c r="G35">
-        <v>-0.02732374860423418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04624608641875277</v>
+      </c>
+      <c r="H35">
+        <v>0.1495587187206019</v>
+      </c>
+      <c r="I35">
+        <v>-0.01222586611979939</v>
+      </c>
+      <c r="J35">
+        <v>-0.004889122024702042</v>
+      </c>
+      <c r="K35">
+        <v>0.1606558056728309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.005982663722801473</v>
+        <v>0.01700165037696302</v>
       </c>
       <c r="C36">
-        <v>-0.05397051477605547</v>
+        <v>0.0498021439969207</v>
       </c>
       <c r="D36">
-        <v>-0.05004872752634225</v>
+        <v>0.04917532568712295</v>
       </c>
       <c r="E36">
-        <v>0.006863905242107398</v>
+        <v>-0.002285966006712083</v>
       </c>
       <c r="F36">
-        <v>0.00136214968590779</v>
+        <v>-0.003330667521180466</v>
       </c>
       <c r="G36">
-        <v>-0.01397781743146339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.003282284950754093</v>
+      </c>
+      <c r="H36">
+        <v>0.07397492346050737</v>
+      </c>
+      <c r="I36">
+        <v>-0.01816941957726974</v>
+      </c>
+      <c r="J36">
+        <v>0.007760786559217847</v>
+      </c>
+      <c r="K36">
+        <v>-0.04031516062176267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03090359084463709</v>
+        <v>0.01259416651231935</v>
       </c>
       <c r="C38">
-        <v>-0.05442651700464205</v>
+        <v>0.06117584662129787</v>
       </c>
       <c r="D38">
-        <v>-0.04471774760949859</v>
+        <v>0.04407012439053264</v>
       </c>
       <c r="E38">
-        <v>-0.003904925327095464</v>
+        <v>0.02931593277723253</v>
       </c>
       <c r="F38">
-        <v>-0.01622262124497305</v>
+        <v>-0.01457680769333038</v>
       </c>
       <c r="G38">
-        <v>-0.006666906462602561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.004118771071039783</v>
+      </c>
+      <c r="H38">
+        <v>0.08123211776095088</v>
+      </c>
+      <c r="I38">
+        <v>0.03352312875029216</v>
+      </c>
+      <c r="J38">
+        <v>-0.05472951427672671</v>
+      </c>
+      <c r="K38">
+        <v>0.03472662970658375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.0002257647428494788</v>
+        <v>0.01740682695125132</v>
       </c>
       <c r="C39">
-        <v>-0.1295755555910607</v>
+        <v>0.1278364523818462</v>
       </c>
       <c r="D39">
-        <v>-0.04076055529548936</v>
+        <v>0.0543008768995235</v>
       </c>
       <c r="E39">
-        <v>0.009214721215742426</v>
+        <v>-0.01106515565424808</v>
       </c>
       <c r="F39">
-        <v>-0.02381300514738368</v>
+        <v>0.001955007347837488</v>
       </c>
       <c r="G39">
-        <v>-0.07495141503250317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04154276455918084</v>
+      </c>
+      <c r="H39">
+        <v>0.05375786346360591</v>
+      </c>
+      <c r="I39">
+        <v>-0.01984785220286252</v>
+      </c>
+      <c r="J39">
+        <v>0.0742769004358152</v>
+      </c>
+      <c r="K39">
+        <v>-0.03520903681554921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01043186554544811</v>
+        <v>0.0130394861976167</v>
       </c>
       <c r="C40">
-        <v>-0.03004976584283488</v>
+        <v>0.05751816534121072</v>
       </c>
       <c r="D40">
-        <v>-0.03399659749120996</v>
+        <v>0.03851821237343415</v>
       </c>
       <c r="E40">
-        <v>0.1316760972282929</v>
+        <v>-0.03309464148629835</v>
       </c>
       <c r="F40">
-        <v>-0.06268721671503007</v>
+        <v>-0.04239946411455196</v>
       </c>
       <c r="G40">
-        <v>-0.07071727571874145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1510613441538743</v>
+      </c>
+      <c r="H40">
+        <v>0.02857515523609725</v>
+      </c>
+      <c r="I40">
+        <v>-0.04477393482209722</v>
+      </c>
+      <c r="J40">
+        <v>-0.02019007983597083</v>
+      </c>
+      <c r="K40">
+        <v>0.2827312585023731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01218454898702921</v>
+        <v>0.02200962589235637</v>
       </c>
       <c r="C41">
-        <v>-0.02252005365680256</v>
+        <v>0.04754551127834233</v>
       </c>
       <c r="D41">
-        <v>-0.005730509141553873</v>
+        <v>0.01803455961439869</v>
       </c>
       <c r="E41">
-        <v>-0.01651367446211655</v>
+        <v>-9.468984728787747e-05</v>
       </c>
       <c r="F41">
-        <v>0.03139970185176966</v>
+        <v>0.0241566957090726</v>
       </c>
       <c r="G41">
-        <v>0.03725434522626719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008858366479657986</v>
+      </c>
+      <c r="H41">
+        <v>0.02132424591272423</v>
+      </c>
+      <c r="I41">
+        <v>0.01112306507327734</v>
+      </c>
+      <c r="J41">
+        <v>-0.02417930266743334</v>
+      </c>
+      <c r="K41">
+        <v>0.05075005777733131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.002420866931407974</v>
+        <v>0.01818458211344152</v>
       </c>
       <c r="C43">
-        <v>-0.02189612351903476</v>
+        <v>0.04382822785059438</v>
       </c>
       <c r="D43">
-        <v>-0.01056432416907146</v>
+        <v>0.02992350917748923</v>
       </c>
       <c r="E43">
-        <v>-0.00775467090070367</v>
+        <v>0.00928991592682267</v>
       </c>
       <c r="F43">
-        <v>-0.003162700505945109</v>
+        <v>0.01233338902984038</v>
       </c>
       <c r="G43">
-        <v>0.005547937525571664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0005314696822409415</v>
+      </c>
+      <c r="H43">
+        <v>0.04038119815098302</v>
+      </c>
+      <c r="I43">
+        <v>0.004664562343965545</v>
+      </c>
+      <c r="J43">
+        <v>0.002903823416888135</v>
+      </c>
+      <c r="K43">
+        <v>0.03805467326693653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02511327146450555</v>
+        <v>0.01465464803756162</v>
       </c>
       <c r="C44">
-        <v>-0.09872878781635634</v>
+        <v>0.09835247253174306</v>
       </c>
       <c r="D44">
-        <v>-0.02602954573876306</v>
+        <v>0.05862020400375727</v>
       </c>
       <c r="E44">
-        <v>0.04384972771766738</v>
+        <v>0.02779793257191699</v>
       </c>
       <c r="F44">
-        <v>-0.05441129311005943</v>
+        <v>-0.0644246884845746</v>
       </c>
       <c r="G44">
-        <v>-0.03826941834668934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0440971217287118</v>
+      </c>
+      <c r="H44">
+        <v>0.05295312870381791</v>
+      </c>
+      <c r="I44">
+        <v>-0.01887679256640493</v>
+      </c>
+      <c r="J44">
+        <v>0.04426329228755882</v>
+      </c>
+      <c r="K44">
+        <v>-0.08351080244163683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005920535287323859</v>
+        <v>0.004810942233450537</v>
       </c>
       <c r="C46">
-        <v>-0.06737304613371754</v>
+        <v>0.06423456948450415</v>
       </c>
       <c r="D46">
-        <v>-0.0409601190793994</v>
+        <v>0.03130346284943184</v>
       </c>
       <c r="E46">
-        <v>0.02926893524021699</v>
+        <v>-0.009471947489836693</v>
       </c>
       <c r="F46">
-        <v>-0.006477849103882475</v>
+        <v>0.009323547211744145</v>
       </c>
       <c r="G46">
-        <v>-0.05287076380590201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03662072745772395</v>
+      </c>
+      <c r="H46">
+        <v>0.1014206995869414</v>
+      </c>
+      <c r="I46">
+        <v>0.01845535792038212</v>
+      </c>
+      <c r="J46">
+        <v>0.0158607394272227</v>
+      </c>
+      <c r="K46">
+        <v>0.07654168360962524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.008891644621377844</v>
+        <v>0.02397193881084427</v>
       </c>
       <c r="C47">
-        <v>-0.07993020541321186</v>
+        <v>0.08189566242348337</v>
       </c>
       <c r="D47">
-        <v>-0.04036032718122565</v>
+        <v>0.04536045855737553</v>
       </c>
       <c r="E47">
-        <v>-0.01881466599161451</v>
+        <v>-0.008923047880139206</v>
       </c>
       <c r="F47">
-        <v>0.04640610718867041</v>
+        <v>0.01945297391748508</v>
       </c>
       <c r="G47">
-        <v>-0.04299635757634725</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007632997344890928</v>
+      </c>
+      <c r="H47">
+        <v>0.06895936859336249</v>
+      </c>
+      <c r="I47">
+        <v>0.01066578266864126</v>
+      </c>
+      <c r="J47">
+        <v>-0.0232088178270342</v>
+      </c>
+      <c r="K47">
+        <v>0.03407861493827744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01079512416130977</v>
+        <v>0.02210010224256583</v>
       </c>
       <c r="C48">
-        <v>-0.05378993228155696</v>
+        <v>0.05089243513385161</v>
       </c>
       <c r="D48">
-        <v>-0.05823334607610856</v>
+        <v>0.05521598142448121</v>
       </c>
       <c r="E48">
-        <v>0.004338869094542864</v>
+        <v>0.004160722666893947</v>
       </c>
       <c r="F48">
-        <v>-0.00401625892114931</v>
+        <v>0.005845630166347917</v>
       </c>
       <c r="G48">
-        <v>-0.01366571985722787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.003946636821121599</v>
+      </c>
+      <c r="H48">
+        <v>0.09569493338962982</v>
+      </c>
+      <c r="I48">
+        <v>-0.04682919905490654</v>
+      </c>
+      <c r="J48">
+        <v>0.01191716581245965</v>
+      </c>
+      <c r="K48">
+        <v>-0.09215405088278013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007783494049078753</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02630816127243397</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001863590388591314</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.00808712863003324</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03288625601284224</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03337855845371765</v>
+      </c>
+      <c r="H49">
+        <v>-0.02145897796872921</v>
+      </c>
+      <c r="I49">
+        <v>-0.06091109326376423</v>
+      </c>
+      <c r="J49">
+        <v>0.02590306803922706</v>
+      </c>
+      <c r="K49">
+        <v>-0.0225063695782769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002047294376206929</v>
+        <v>0.01400729016183554</v>
       </c>
       <c r="C50">
-        <v>-0.06217603278438182</v>
+        <v>0.07784359323389167</v>
       </c>
       <c r="D50">
-        <v>-0.02651296658405828</v>
+        <v>0.02969646103532585</v>
       </c>
       <c r="E50">
-        <v>-0.0008689316746801504</v>
+        <v>0.006795001869604007</v>
       </c>
       <c r="F50">
-        <v>-0.008160422920856775</v>
+        <v>-0.003694819892546362</v>
       </c>
       <c r="G50">
-        <v>-0.01561495075642744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008119993168025698</v>
+      </c>
+      <c r="H50">
+        <v>0.05540065705565966</v>
+      </c>
+      <c r="I50">
+        <v>0.002237896788481992</v>
+      </c>
+      <c r="J50">
+        <v>-0.04454351036004376</v>
+      </c>
+      <c r="K50">
+        <v>0.02196099606091844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.004163543092726387</v>
+        <v>-0.006209511212056696</v>
       </c>
       <c r="C51">
-        <v>-0.07662384813692452</v>
+        <v>0.03696507039981605</v>
       </c>
       <c r="D51">
-        <v>-0.00340966458044739</v>
+        <v>0.02191508652686573</v>
       </c>
       <c r="E51">
-        <v>0.05314726459827871</v>
+        <v>-0.01055663569313457</v>
       </c>
       <c r="F51">
-        <v>-0.05948645956676454</v>
+        <v>-0.02968012629108129</v>
       </c>
       <c r="G51">
-        <v>-0.01023524047321932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02894852766990186</v>
+      </c>
+      <c r="H51">
+        <v>0.09886677522369718</v>
+      </c>
+      <c r="I51">
+        <v>-0.04623233437507664</v>
+      </c>
+      <c r="J51">
+        <v>-0.007231789130449904</v>
+      </c>
+      <c r="K51">
+        <v>-0.09955924142675636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04082306552784854</v>
+        <v>0.05823873584831788</v>
       </c>
       <c r="C53">
-        <v>-0.1371986342263406</v>
+        <v>0.1316836206834559</v>
       </c>
       <c r="D53">
-        <v>-0.06340657373041519</v>
+        <v>0.05640635967685898</v>
       </c>
       <c r="E53">
-        <v>-0.1263298588004893</v>
+        <v>-0.01721462653577095</v>
       </c>
       <c r="F53">
-        <v>0.06653879337607864</v>
+        <v>0.07422564365757611</v>
       </c>
       <c r="G53">
-        <v>0.03108149727702441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08285358060725147</v>
+      </c>
+      <c r="H53">
+        <v>-0.03073914298364979</v>
+      </c>
+      <c r="I53">
+        <v>-7.024279362054409e-06</v>
+      </c>
+      <c r="J53">
+        <v>-0.04258583144203953</v>
+      </c>
+      <c r="K53">
+        <v>0.008596867980546721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.003130200010112874</v>
+        <v>0.01834547509078782</v>
       </c>
       <c r="C54">
-        <v>-0.06265649154819546</v>
+        <v>0.07436565329038307</v>
       </c>
       <c r="D54">
-        <v>-0.006176751564663976</v>
+        <v>0.0126254169235931</v>
       </c>
       <c r="E54">
-        <v>-0.02712423562518614</v>
+        <v>-0.007617081371052726</v>
       </c>
       <c r="F54">
-        <v>-0.006619410506556266</v>
+        <v>0.02323025055362548</v>
       </c>
       <c r="G54">
-        <v>-0.01414260578809519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01835331540164799</v>
+      </c>
+      <c r="H54">
+        <v>0.04804878414022581</v>
+      </c>
+      <c r="I54">
+        <v>-0.02767086703161096</v>
+      </c>
+      <c r="J54">
+        <v>0.01877908100519323</v>
+      </c>
+      <c r="K54">
+        <v>0.004362727485919576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.0228532168531054</v>
+        <v>0.03251485489450837</v>
       </c>
       <c r="C55">
-        <v>-0.08881517648502649</v>
+        <v>0.08488018079097008</v>
       </c>
       <c r="D55">
-        <v>-0.06628667409318971</v>
+        <v>0.0545203367589506</v>
       </c>
       <c r="E55">
-        <v>-0.05552081969191558</v>
+        <v>-0.006611101898631191</v>
       </c>
       <c r="F55">
-        <v>0.05065193712855564</v>
+        <v>0.05516190404584671</v>
       </c>
       <c r="G55">
-        <v>-0.005296370146807276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03912748958424737</v>
+      </c>
+      <c r="H55">
+        <v>-0.01831832743528712</v>
+      </c>
+      <c r="I55">
+        <v>-0.0111603301688903</v>
+      </c>
+      <c r="J55">
+        <v>0.005015918915038591</v>
+      </c>
+      <c r="K55">
+        <v>0.002505621421358595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.02483591908161014</v>
+        <v>0.04555536247486471</v>
       </c>
       <c r="C56">
-        <v>-0.1671195467840203</v>
+        <v>0.1501610364662363</v>
       </c>
       <c r="D56">
-        <v>-0.05583078744141864</v>
+        <v>0.07833401992500905</v>
       </c>
       <c r="E56">
-        <v>-0.1133594742808164</v>
+        <v>-0.04622476745294432</v>
       </c>
       <c r="F56">
-        <v>0.1046754324994242</v>
+        <v>0.09828737548246498</v>
       </c>
       <c r="G56">
-        <v>0.07412691737572666</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1583490258781124</v>
+      </c>
+      <c r="H56">
+        <v>-0.04447229541275767</v>
+      </c>
+      <c r="I56">
+        <v>-0.0244501006003544</v>
+      </c>
+      <c r="J56">
+        <v>-0.02992721017189623</v>
+      </c>
+      <c r="K56">
+        <v>-0.01937785135566228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03222119498720626</v>
+        <v>0.02232657522016177</v>
       </c>
       <c r="C58">
-        <v>-0.2890497065613408</v>
+        <v>0.1829571857418271</v>
       </c>
       <c r="D58">
-        <v>0.06904010699217605</v>
+        <v>0.03889945592048216</v>
       </c>
       <c r="E58">
-        <v>0.1594125754534183</v>
+        <v>0.04393096095382611</v>
       </c>
       <c r="F58">
-        <v>-0.2981059723863247</v>
+        <v>-0.3138293113610547</v>
       </c>
       <c r="G58">
-        <v>0.1559630300870987</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.08131874363140891</v>
+      </c>
+      <c r="H58">
+        <v>0.06837548629890436</v>
+      </c>
+      <c r="I58">
+        <v>0.01782585891988911</v>
+      </c>
+      <c r="J58">
+        <v>-0.05114208743177733</v>
+      </c>
+      <c r="K58">
+        <v>-0.3638700037493382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2812657341924785</v>
+        <v>0.2889223135850713</v>
       </c>
       <c r="C59">
-        <v>0.003669397318893449</v>
+        <v>-0.04581200278055301</v>
       </c>
       <c r="D59">
-        <v>0.03223830437240032</v>
+        <v>-0.004641553506204369</v>
       </c>
       <c r="E59">
-        <v>0.05405199833249529</v>
+        <v>-0.01602392736259206</v>
       </c>
       <c r="F59">
-        <v>0.04283472634387547</v>
+        <v>-0.04822482677369259</v>
       </c>
       <c r="G59">
-        <v>-0.008978386384470405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0016617006323131</v>
+      </c>
+      <c r="H59">
+        <v>-0.02166458966715801</v>
+      </c>
+      <c r="I59">
+        <v>0.01505547398453344</v>
+      </c>
+      <c r="J59">
+        <v>-0.0211505360168209</v>
+      </c>
+      <c r="K59">
+        <v>0.02809106109891851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1112874729191746</v>
+        <v>0.1472094290493798</v>
       </c>
       <c r="C60">
-        <v>-0.1518685105834519</v>
+        <v>0.1538733457163935</v>
       </c>
       <c r="D60">
-        <v>-0.07525138123552709</v>
+        <v>0.04887170226702232</v>
       </c>
       <c r="E60">
-        <v>-0.03694561133095518</v>
+        <v>-0.04164645653782119</v>
       </c>
       <c r="F60">
-        <v>0.1196003777762331</v>
+        <v>0.1156629478988115</v>
       </c>
       <c r="G60">
-        <v>-0.3145749666449579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2570696415693692</v>
+      </c>
+      <c r="H60">
+        <v>-0.2413119291115899</v>
+      </c>
+      <c r="I60">
+        <v>-0.002609784457404718</v>
+      </c>
+      <c r="J60">
+        <v>0.02350505624371671</v>
+      </c>
+      <c r="K60">
+        <v>-0.03257443147210964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.0001229444845810245</v>
+        <v>0.01990349286279222</v>
       </c>
       <c r="C61">
-        <v>-0.07985380076747166</v>
+        <v>0.0949188542635882</v>
       </c>
       <c r="D61">
-        <v>-0.04839739954118082</v>
+        <v>0.05144332912744635</v>
       </c>
       <c r="E61">
-        <v>-0.02025760289432441</v>
+        <v>-0.01016245451126486</v>
       </c>
       <c r="F61">
-        <v>0.00672918296261915</v>
+        <v>0.03081578232333255</v>
       </c>
       <c r="G61">
-        <v>-0.07186143450700082</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02591631141398827</v>
+      </c>
+      <c r="H61">
+        <v>0.05996543647186221</v>
+      </c>
+      <c r="I61">
+        <v>-0.03337229944031281</v>
+      </c>
+      <c r="J61">
+        <v>0.02205874330207472</v>
+      </c>
+      <c r="K61">
+        <v>0.01488306785457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002450262094603591</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0133314917544615</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.004063805409920446</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.008217076307889589</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01403824731539587</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01767600022428077</v>
+      </c>
+      <c r="H62">
+        <v>0.003975281471548842</v>
+      </c>
+      <c r="I62">
+        <v>-0.05521946925467431</v>
+      </c>
+      <c r="J62">
+        <v>-0.03035652722406433</v>
+      </c>
+      <c r="K62">
+        <v>0.01532481600966843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001802898204349769</v>
+        <v>0.02715396182898449</v>
       </c>
       <c r="C63">
-        <v>-0.06273252657232517</v>
+        <v>0.06752988769308477</v>
       </c>
       <c r="D63">
-        <v>-0.04053816598756303</v>
+        <v>0.06010827522616921</v>
       </c>
       <c r="E63">
-        <v>-0.0254304382931186</v>
+        <v>-0.008908117306766864</v>
       </c>
       <c r="F63">
-        <v>-0.003963969292269328</v>
+        <v>0.02027461437913006</v>
       </c>
       <c r="G63">
-        <v>-0.02683288558171889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.004229309708651189</v>
+      </c>
+      <c r="H63">
+        <v>0.05865478599810438</v>
+      </c>
+      <c r="I63">
+        <v>-0.03705736157482868</v>
+      </c>
+      <c r="J63">
+        <v>0.001711403800349823</v>
+      </c>
+      <c r="K63">
+        <v>0.01353364841197769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.001759759416864572</v>
+        <v>0.01581087716989402</v>
       </c>
       <c r="C64">
-        <v>-0.08304936101277451</v>
+        <v>0.09236645145954481</v>
       </c>
       <c r="D64">
-        <v>-0.06649512459824836</v>
+        <v>0.03289772763143264</v>
       </c>
       <c r="E64">
-        <v>0.009115178862515057</v>
+        <v>0.02709364322591763</v>
       </c>
       <c r="F64">
-        <v>-0.01885562712384112</v>
+        <v>-0.0254836896559819</v>
       </c>
       <c r="G64">
-        <v>-0.04951641217071232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06772130438390912</v>
+      </c>
+      <c r="H64">
+        <v>0.05098972041189939</v>
+      </c>
+      <c r="I64">
+        <v>-0.04039066990712153</v>
+      </c>
+      <c r="J64">
+        <v>0.0314577222896059</v>
+      </c>
+      <c r="K64">
+        <v>0.01823349327352185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01081775304701948</v>
+        <v>0.02997060972207606</v>
       </c>
       <c r="C65">
-        <v>-0.08219529479607235</v>
+        <v>0.09514946414478899</v>
       </c>
       <c r="D65">
-        <v>-0.02369162887175883</v>
+        <v>0.02021277482134072</v>
       </c>
       <c r="E65">
-        <v>0.03581860901513784</v>
+        <v>0.01184387259864272</v>
       </c>
       <c r="F65">
-        <v>-0.02927702042601714</v>
+        <v>-0.0006613952718915951</v>
       </c>
       <c r="G65">
-        <v>-0.03590782292550834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09201983232657755</v>
+      </c>
+      <c r="H65">
+        <v>0.007457099486414511</v>
+      </c>
+      <c r="I65">
+        <v>0.004027787793659729</v>
+      </c>
+      <c r="J65">
+        <v>0.09041990304810021</v>
+      </c>
+      <c r="K65">
+        <v>-0.09949951609149853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.0006487093553783094</v>
+        <v>0.01444787167264363</v>
       </c>
       <c r="C66">
-        <v>-0.1727157392578093</v>
+        <v>0.1660885425777088</v>
       </c>
       <c r="D66">
-        <v>-0.021821460127262</v>
+        <v>0.04626498294496058</v>
       </c>
       <c r="E66">
-        <v>0.04896789761621816</v>
+        <v>-0.01736616898218302</v>
       </c>
       <c r="F66">
-        <v>-0.01396415279691661</v>
+        <v>-0.01064661209271485</v>
       </c>
       <c r="G66">
-        <v>-0.09494883195907329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0253505907298859</v>
+      </c>
+      <c r="H66">
+        <v>0.06450300718608985</v>
+      </c>
+      <c r="I66">
+        <v>-0.03290864197631134</v>
+      </c>
+      <c r="J66">
+        <v>0.04880835557374448</v>
+      </c>
+      <c r="K66">
+        <v>-0.02357449818568851</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02795195012572013</v>
+        <v>0.02065673160626276</v>
       </c>
       <c r="C67">
-        <v>-0.0320225210681486</v>
+        <v>0.05063264145252374</v>
       </c>
       <c r="D67">
-        <v>-0.06422723653125004</v>
+        <v>0.04505370350340306</v>
       </c>
       <c r="E67">
-        <v>-0.03557999224365099</v>
+        <v>0.02521951798796397</v>
       </c>
       <c r="F67">
-        <v>-0.001076901051879067</v>
+        <v>0.02192441986700515</v>
       </c>
       <c r="G67">
-        <v>-0.01732861891157545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02027777007970454</v>
+      </c>
+      <c r="H67">
+        <v>0.05694846639450104</v>
+      </c>
+      <c r="I67">
+        <v>0.05011485352873515</v>
+      </c>
+      <c r="J67">
+        <v>-0.03914346258135248</v>
+      </c>
+      <c r="K67">
+        <v>0.04778341791174588</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2919665921814587</v>
+        <v>0.2953862560528457</v>
       </c>
       <c r="C68">
-        <v>0.03531870356766154</v>
+        <v>-0.06983658589711567</v>
       </c>
       <c r="D68">
-        <v>0.02367814266951481</v>
+        <v>-0.02449789714127256</v>
       </c>
       <c r="E68">
-        <v>0.03139687132737533</v>
+        <v>-0.006308779491894291</v>
       </c>
       <c r="F68">
-        <v>-0.008718138329123336</v>
+        <v>-0.03547870278977153</v>
       </c>
       <c r="G68">
-        <v>0.01175866432914982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02135359031998374</v>
+      </c>
+      <c r="H68">
+        <v>0.02586939644787908</v>
+      </c>
+      <c r="I68">
+        <v>-0.05317299876930679</v>
+      </c>
+      <c r="J68">
+        <v>-0.06058684645537494</v>
+      </c>
+      <c r="K68">
+        <v>0.005981680193586706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01034344058306216</v>
+        <v>0.006368158744925087</v>
       </c>
       <c r="C69">
-        <v>-0.04570089773937595</v>
+        <v>0.04661186920354766</v>
       </c>
       <c r="D69">
-        <v>-0.04289981841605493</v>
+        <v>0.02271637378896412</v>
       </c>
       <c r="E69">
-        <v>-0.02036188552106398</v>
+        <v>-0.0005830999772519922</v>
       </c>
       <c r="F69">
-        <v>-0.004238220277869408</v>
+        <v>0.0137420763019382</v>
       </c>
       <c r="G69">
-        <v>-0.01544284175380809</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02608683512727786</v>
+      </c>
+      <c r="H69">
+        <v>0.04198672803170297</v>
+      </c>
+      <c r="I69">
+        <v>0.004781577511626033</v>
+      </c>
+      <c r="J69">
+        <v>-0.0199918731815752</v>
+      </c>
+      <c r="K69">
+        <v>0.002873247568277341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2827890330870401</v>
+        <v>0.2770283378954631</v>
       </c>
       <c r="C71">
-        <v>0.04543472310733215</v>
+        <v>-0.07475008835619128</v>
       </c>
       <c r="D71">
-        <v>0.03038913045873144</v>
+        <v>-0.02356197022494286</v>
       </c>
       <c r="E71">
-        <v>0.01707311115424802</v>
+        <v>0.01408633235550864</v>
       </c>
       <c r="F71">
-        <v>-0.0249084036982538</v>
+        <v>-0.06015825503596182</v>
       </c>
       <c r="G71">
-        <v>0.001763073402525299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02506652525240475</v>
+      </c>
+      <c r="H71">
+        <v>0.05115280441522743</v>
+      </c>
+      <c r="I71">
+        <v>0.007265240463669612</v>
+      </c>
+      <c r="J71">
+        <v>-0.1267850005560485</v>
+      </c>
+      <c r="K71">
+        <v>-0.02886664638468284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.02917386959196849</v>
+        <v>0.05496592975475542</v>
       </c>
       <c r="C72">
-        <v>-0.1576773503744993</v>
+        <v>0.1422653495139249</v>
       </c>
       <c r="D72">
-        <v>-0.06612251305947096</v>
+        <v>0.04374808064673211</v>
       </c>
       <c r="E72">
-        <v>0.006389625599782289</v>
+        <v>-0.01513858748143</v>
       </c>
       <c r="F72">
-        <v>-0.08192917967814629</v>
+        <v>0.04155515315809889</v>
       </c>
       <c r="G72">
-        <v>-0.1284771131864422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02327982465599176</v>
+      </c>
+      <c r="H72">
+        <v>0.03453970252563115</v>
+      </c>
+      <c r="I72">
+        <v>-0.04280755467839645</v>
+      </c>
+      <c r="J72">
+        <v>0.1195918810373631</v>
+      </c>
+      <c r="K72">
+        <v>-0.07486241702758166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.07528421186622299</v>
+        <v>0.1512075230473461</v>
       </c>
       <c r="C73">
-        <v>-0.121404402427101</v>
+        <v>0.1955088441378675</v>
       </c>
       <c r="D73">
-        <v>-0.1151715066214561</v>
+        <v>0.08407370655928682</v>
       </c>
       <c r="E73">
-        <v>-0.1307256666594582</v>
+        <v>-0.01397646599830532</v>
       </c>
       <c r="F73">
-        <v>0.1343595705969239</v>
+        <v>0.2377723314477266</v>
       </c>
       <c r="G73">
-        <v>-0.4283406313113741</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3832490750093042</v>
+      </c>
+      <c r="H73">
+        <v>-0.3004865958480989</v>
+      </c>
+      <c r="I73">
+        <v>0.09776272914011166</v>
+      </c>
+      <c r="J73">
+        <v>-0.05840273878260496</v>
+      </c>
+      <c r="K73">
+        <v>-0.07601034719979907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01534785761095772</v>
+        <v>0.04013361470830597</v>
       </c>
       <c r="C74">
-        <v>-0.09319965721874179</v>
+        <v>0.1011399641705279</v>
       </c>
       <c r="D74">
-        <v>-0.071853167428534</v>
+        <v>0.04827270483402884</v>
       </c>
       <c r="E74">
-        <v>-0.07372147046841106</v>
+        <v>0.007038554858840002</v>
       </c>
       <c r="F74">
-        <v>0.05675701369016491</v>
+        <v>0.04336346638579545</v>
       </c>
       <c r="G74">
-        <v>0.01805607379583067</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04319226450463051</v>
+      </c>
+      <c r="H74">
+        <v>-0.006181694294020878</v>
+      </c>
+      <c r="I74">
+        <v>-0.04429050478045271</v>
+      </c>
+      <c r="J74">
+        <v>-0.02307106499905189</v>
+      </c>
+      <c r="K74">
+        <v>-0.03165262872538827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.05963400589085415</v>
+        <v>0.06485086103664407</v>
       </c>
       <c r="C75">
-        <v>-0.1515039136328326</v>
+        <v>0.1671709227520877</v>
       </c>
       <c r="D75">
-        <v>-0.08853948479196515</v>
+        <v>0.08490664047351409</v>
       </c>
       <c r="E75">
-        <v>-0.1750824206052794</v>
+        <v>0.03779141278835847</v>
       </c>
       <c r="F75">
-        <v>0.08808023218182644</v>
+        <v>0.1198918371732607</v>
       </c>
       <c r="G75">
-        <v>0.1522774282111208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2251939802639412</v>
+      </c>
+      <c r="H75">
+        <v>-0.03416488623561434</v>
+      </c>
+      <c r="I75">
+        <v>0.01267454773043505</v>
+      </c>
+      <c r="J75">
+        <v>-0.1318266885007897</v>
+      </c>
+      <c r="K75">
+        <v>0.09249834529872913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02308490607302416</v>
+        <v>0.04242244918441238</v>
       </c>
       <c r="C76">
-        <v>-0.1065496839745332</v>
+        <v>0.1212399756463692</v>
       </c>
       <c r="D76">
-        <v>-0.05848507274556451</v>
+        <v>0.07130463461172097</v>
       </c>
       <c r="E76">
-        <v>-0.08230629585460134</v>
+        <v>-0.01330962289355374</v>
       </c>
       <c r="F76">
-        <v>0.08419421578869755</v>
+        <v>0.08803473842382555</v>
       </c>
       <c r="G76">
-        <v>0.02676074519691376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07588341710844396</v>
+      </c>
+      <c r="H76">
+        <v>-0.01935623553763556</v>
+      </c>
+      <c r="I76">
+        <v>-0.0610014690046953</v>
+      </c>
+      <c r="J76">
+        <v>-0.01044928842770456</v>
+      </c>
+      <c r="K76">
+        <v>0.02274350384586431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.07859747392319957</v>
+        <v>0.05185205389539195</v>
       </c>
       <c r="C77">
-        <v>-0.2876020586829836</v>
+        <v>0.3931721695036</v>
       </c>
       <c r="D77">
-        <v>0.8560882522463034</v>
+        <v>-0.9022917879612344</v>
       </c>
       <c r="E77">
-        <v>-0.3168084080484236</v>
+        <v>0.03194886202173406</v>
       </c>
       <c r="F77">
-        <v>0.0546520588056651</v>
+        <v>0.08986713368982246</v>
       </c>
       <c r="G77">
-        <v>-0.06275645314475041</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03089364781509643</v>
+      </c>
+      <c r="H77">
+        <v>0.04984284858231727</v>
+      </c>
+      <c r="I77">
+        <v>-0.03428443939194784</v>
+      </c>
+      <c r="J77">
+        <v>-0.01680400042393709</v>
+      </c>
+      <c r="K77">
+        <v>0.009413585864063427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02547461968274382</v>
+        <v>0.03468368183906688</v>
       </c>
       <c r="C78">
-        <v>-0.1454712586207479</v>
+        <v>0.1150692160747928</v>
       </c>
       <c r="D78">
-        <v>-0.0946251159961824</v>
+        <v>0.09485286952629499</v>
       </c>
       <c r="E78">
-        <v>0.07002653238996423</v>
+        <v>-0.04585449947265399</v>
       </c>
       <c r="F78">
-        <v>0.09278901383007092</v>
+        <v>0.0007702924604814716</v>
       </c>
       <c r="G78">
-        <v>0.06109174446305825</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1192904019913368</v>
+      </c>
+      <c r="H78">
+        <v>0.06488882811813224</v>
+      </c>
+      <c r="I78">
+        <v>-0.02374872629994322</v>
+      </c>
+      <c r="J78">
+        <v>0.05614464141654001</v>
+      </c>
+      <c r="K78">
+        <v>-0.4309239839620764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02862746287895602</v>
+        <v>0.05529735466162961</v>
       </c>
       <c r="C79">
-        <v>-0.1821856032526596</v>
+        <v>0.1426511696666997</v>
       </c>
       <c r="D79">
-        <v>-0.0981115158292586</v>
+        <v>0.06676616880249737</v>
       </c>
       <c r="E79">
-        <v>-0.115020520959378</v>
+        <v>-0.01749192381050936</v>
       </c>
       <c r="F79">
-        <v>0.1271074671261145</v>
+        <v>0.07028603483910935</v>
       </c>
       <c r="G79">
-        <v>0.174052290790627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2304277474087318</v>
+      </c>
+      <c r="H79">
+        <v>-0.001201048967020236</v>
+      </c>
+      <c r="I79">
+        <v>-0.01330679806749167</v>
+      </c>
+      <c r="J79">
+        <v>-0.09999430667279752</v>
+      </c>
+      <c r="K79">
+        <v>-0.0492298185385875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01054807953059941</v>
+        <v>0.02071964443288774</v>
       </c>
       <c r="C80">
-        <v>-0.04212259606188217</v>
+        <v>0.04829532538507538</v>
       </c>
       <c r="D80">
-        <v>-0.05033949191956823</v>
+        <v>0.03913357633131245</v>
       </c>
       <c r="E80">
-        <v>0.01450207954022702</v>
+        <v>-0.04534653840699796</v>
       </c>
       <c r="F80">
-        <v>0.03421395555671392</v>
+        <v>-0.02978158531887177</v>
       </c>
       <c r="G80">
-        <v>0.01098120071096433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0639313217268533</v>
+      </c>
+      <c r="H80">
+        <v>-0.0298453176969359</v>
+      </c>
+      <c r="I80">
+        <v>0.03579537386947551</v>
+      </c>
+      <c r="J80">
+        <v>-0.02840275237749315</v>
+      </c>
+      <c r="K80">
+        <v>0.06428731725842521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.009042685217652524</v>
+        <v>0.01681063960895122</v>
       </c>
       <c r="C81">
-        <v>-0.07453514431435324</v>
+        <v>0.09809959845074531</v>
       </c>
       <c r="D81">
-        <v>-0.07724983956177475</v>
+        <v>0.05358246085180145</v>
       </c>
       <c r="E81">
-        <v>-0.09065728888302374</v>
+        <v>-0.0136072637444937</v>
       </c>
       <c r="F81">
-        <v>0.08874119549658646</v>
+        <v>0.05175484828082471</v>
       </c>
       <c r="G81">
-        <v>0.06273783136222086</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1130455449638003</v>
+      </c>
+      <c r="H81">
+        <v>0.0411856179102295</v>
+      </c>
+      <c r="I81">
+        <v>-0.01399918672109729</v>
+      </c>
+      <c r="J81">
+        <v>-0.06310930563349211</v>
+      </c>
+      <c r="K81">
+        <v>0.02253093799730274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.0282205125091804</v>
+        <v>0.04634726171857827</v>
       </c>
       <c r="C82">
-        <v>-0.08592661450456741</v>
+        <v>0.1025557654222151</v>
       </c>
       <c r="D82">
-        <v>-0.07413904000638097</v>
+        <v>0.06640579570168959</v>
       </c>
       <c r="E82">
-        <v>-0.1037957670532792</v>
+        <v>-0.01896682243477204</v>
       </c>
       <c r="F82">
-        <v>0.07826336607516915</v>
+        <v>0.07784222646310127</v>
       </c>
       <c r="G82">
-        <v>0.01754366846255527</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09121366562284289</v>
+      </c>
+      <c r="H82">
+        <v>0.001881788424130933</v>
+      </c>
+      <c r="I82">
+        <v>-0.03006063889383524</v>
+      </c>
+      <c r="J82">
+        <v>-0.0276137280628951</v>
+      </c>
+      <c r="K82">
+        <v>0.005796862742890319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003366327512436905</v>
+        <v>-0.001297170108389526</v>
       </c>
       <c r="C83">
-        <v>-0.02478391963780311</v>
+        <v>-0.02326866783219467</v>
       </c>
       <c r="D83">
-        <v>0.1779830797179399</v>
+        <v>-0.06544135853805051</v>
       </c>
       <c r="E83">
-        <v>0.5739842158219161</v>
+        <v>-0.95332450497448</v>
       </c>
       <c r="F83">
-        <v>0.7189137700039416</v>
+        <v>-0.1260026935784526</v>
       </c>
       <c r="G83">
-        <v>0.05766682385324519</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03835580720487766</v>
+      </c>
+      <c r="H83">
+        <v>-0.09560262471044129</v>
+      </c>
+      <c r="I83">
+        <v>-0.02662422129112405</v>
+      </c>
+      <c r="J83">
+        <v>0.05750286493274137</v>
+      </c>
+      <c r="K83">
+        <v>-0.02305940725090252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.003233550556859468</v>
+        <v>4.810575986567166e-05</v>
       </c>
       <c r="C84">
-        <v>-0.07193465002593737</v>
+        <v>0.04615297874246999</v>
       </c>
       <c r="D84">
-        <v>-0.03451402288252609</v>
+        <v>0.06158512284675907</v>
       </c>
       <c r="E84">
-        <v>0.0665595344432014</v>
+        <v>0.02487188563568379</v>
       </c>
       <c r="F84">
-        <v>-0.1489509559254316</v>
+        <v>-0.08942304696031816</v>
       </c>
       <c r="G84">
-        <v>0.07047387740109688</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04111617277510024</v>
+      </c>
+      <c r="H84">
+        <v>0.08864305591672825</v>
+      </c>
+      <c r="I84">
+        <v>-0.08887558082399401</v>
+      </c>
+      <c r="J84">
+        <v>0.0938483613961909</v>
+      </c>
+      <c r="K84">
+        <v>0.06386407792451046</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.01835714059171435</v>
+        <v>0.02932504716316325</v>
       </c>
       <c r="C85">
-        <v>-0.133298664358895</v>
+        <v>0.1174045163748453</v>
       </c>
       <c r="D85">
-        <v>-0.08598603533887621</v>
+        <v>0.0818115063610915</v>
       </c>
       <c r="E85">
-        <v>-0.1193839586779969</v>
+        <v>-0.01863616852292431</v>
       </c>
       <c r="F85">
-        <v>0.1299759341466198</v>
+        <v>0.137061360347164</v>
       </c>
       <c r="G85">
-        <v>0.1208942848253259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2091073627149445</v>
+      </c>
+      <c r="H85">
+        <v>-0.04688228903279042</v>
+      </c>
+      <c r="I85">
+        <v>-0.06787293784828322</v>
+      </c>
+      <c r="J85">
+        <v>-0.1098468426845896</v>
+      </c>
+      <c r="K85">
+        <v>0.04488167577721037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01864367662122558</v>
+        <v>0.01480553864185657</v>
       </c>
       <c r="C86">
-        <v>-0.07339109077520777</v>
+        <v>0.08222754606987209</v>
       </c>
       <c r="D86">
-        <v>0.03439604172170724</v>
+        <v>0.02754231877081545</v>
       </c>
       <c r="E86">
-        <v>0.01832757100526395</v>
+        <v>0.005253881505657821</v>
       </c>
       <c r="F86">
-        <v>-0.06317745430374219</v>
+        <v>-0.08565946557353485</v>
       </c>
       <c r="G86">
-        <v>-0.04646736689097827</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04842101799986065</v>
+      </c>
+      <c r="H86">
+        <v>0.007716511875071093</v>
+      </c>
+      <c r="I86">
+        <v>0.1499620911175963</v>
+      </c>
+      <c r="J86">
+        <v>-0.1014255064027093</v>
+      </c>
+      <c r="K86">
+        <v>-0.1839933830227354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.03362137128063098</v>
+        <v>0.02588792515897676</v>
       </c>
       <c r="C87">
-        <v>-0.1563232612717348</v>
+        <v>0.1192833414446696</v>
       </c>
       <c r="D87">
-        <v>-0.01493679160167343</v>
+        <v>0.01652551841591986</v>
       </c>
       <c r="E87">
-        <v>0.100636181774605</v>
+        <v>0.01230976438984014</v>
       </c>
       <c r="F87">
-        <v>-0.06230561394447147</v>
+        <v>-0.06940880789183457</v>
       </c>
       <c r="G87">
-        <v>0.02347864973156658</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.005435097294221496</v>
+      </c>
+      <c r="H87">
+        <v>0.04169240606868994</v>
+      </c>
+      <c r="I87">
+        <v>-0.1214753063051727</v>
+      </c>
+      <c r="J87">
+        <v>0.04692481221606615</v>
+      </c>
+      <c r="K87">
+        <v>-0.05917110110016791</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.00654927927538789</v>
+        <v>0.0381349771915103</v>
       </c>
       <c r="C88">
-        <v>-0.03779961763423122</v>
+        <v>0.06307998915799304</v>
       </c>
       <c r="D88">
-        <v>-0.05114831744612661</v>
+        <v>0.04327479772740504</v>
       </c>
       <c r="E88">
-        <v>-0.05448946535886598</v>
+        <v>0.008087287116366885</v>
       </c>
       <c r="F88">
-        <v>0.02260542274802871</v>
+        <v>0.02450246349982707</v>
       </c>
       <c r="G88">
-        <v>-0.01773265245954985</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0275918481080152</v>
+      </c>
+      <c r="H88">
+        <v>0.003021446278128226</v>
+      </c>
+      <c r="I88">
+        <v>-0.007853049140794953</v>
+      </c>
+      <c r="J88">
+        <v>-0.02118444309916437</v>
+      </c>
+      <c r="K88">
+        <v>0.07214339888003907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3851944241536211</v>
+        <v>0.3893435404142848</v>
       </c>
       <c r="C89">
-        <v>0.09278683226387116</v>
+        <v>-0.118373377101185</v>
       </c>
       <c r="D89">
-        <v>-0.110685788377607</v>
+        <v>-0.03396202940007551</v>
       </c>
       <c r="E89">
-        <v>0.08441248096827721</v>
+        <v>0.04248606803780527</v>
       </c>
       <c r="F89">
-        <v>-0.07921597985630559</v>
+        <v>-0.05517624707803448</v>
       </c>
       <c r="G89">
-        <v>0.08836750792217002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04064858284717283</v>
+      </c>
+      <c r="H89">
+        <v>0.02444666159562221</v>
+      </c>
+      <c r="I89">
+        <v>-0.2100772296239354</v>
+      </c>
+      <c r="J89">
+        <v>0.7040417810985892</v>
+      </c>
+      <c r="K89">
+        <v>-0.01499217608661988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3049625276100797</v>
+        <v>0.3156043615701188</v>
       </c>
       <c r="C90">
-        <v>0.03357219635134574</v>
+        <v>-0.07570931378123988</v>
       </c>
       <c r="D90">
-        <v>0.01367997516832554</v>
+        <v>-0.01868026288961662</v>
       </c>
       <c r="E90">
-        <v>0.07445606770211165</v>
+        <v>-0.007120550930655307</v>
       </c>
       <c r="F90">
-        <v>0.01475939355165253</v>
+        <v>-0.03865735656413158</v>
       </c>
       <c r="G90">
-        <v>-0.01446143572004702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01079279728200622</v>
+      </c>
+      <c r="H90">
+        <v>0.02299244798455327</v>
+      </c>
+      <c r="I90">
+        <v>0.01553820043685186</v>
+      </c>
+      <c r="J90">
+        <v>-0.08208019381659226</v>
+      </c>
+      <c r="K90">
+        <v>-0.002125086589644226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03195631335555566</v>
+        <v>0.05263816777299954</v>
       </c>
       <c r="C91">
-        <v>-0.08118230848700973</v>
+        <v>0.08180236267802816</v>
       </c>
       <c r="D91">
-        <v>-0.04899297297797624</v>
+        <v>0.04426177400844308</v>
       </c>
       <c r="E91">
-        <v>-0.06287308486708262</v>
+        <v>-0.03785482883058242</v>
       </c>
       <c r="F91">
-        <v>0.07466137009715423</v>
+        <v>0.0563066687543529</v>
       </c>
       <c r="G91">
-        <v>0.05906555623877616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07792823186738755</v>
+      </c>
+      <c r="H91">
+        <v>-0.03175791321850468</v>
+      </c>
+      <c r="I91">
+        <v>-0.004711485467727363</v>
+      </c>
+      <c r="J91">
+        <v>-0.003116334784902686</v>
+      </c>
+      <c r="K91">
+        <v>0.05213634182953563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3842169082730919</v>
+        <v>0.3541638202247661</v>
       </c>
       <c r="C92">
-        <v>0.07926886387886102</v>
+        <v>-0.1203100883331204</v>
       </c>
       <c r="D92">
-        <v>0.006661697110634819</v>
+        <v>-0.05283397878047533</v>
       </c>
       <c r="E92">
-        <v>-0.03538350562176663</v>
+        <v>0.04175378123612846</v>
       </c>
       <c r="F92">
-        <v>-0.1043021688144721</v>
+        <v>-0.04833691106428178</v>
       </c>
       <c r="G92">
-        <v>0.02080407825464969</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01496951640637571</v>
+      </c>
+      <c r="H92">
+        <v>0.06324264688664964</v>
+      </c>
+      <c r="I92">
+        <v>0.04926345389282449</v>
+      </c>
+      <c r="J92">
+        <v>-0.1410153531844686</v>
+      </c>
+      <c r="K92">
+        <v>0.01299674317545117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3013133796782795</v>
+        <v>0.3109808384500983</v>
       </c>
       <c r="C93">
-        <v>0.08037813618865376</v>
+        <v>-0.1136502651716427</v>
       </c>
       <c r="D93">
-        <v>-0.01082585734766457</v>
+        <v>-0.008296499938816501</v>
       </c>
       <c r="E93">
-        <v>0.05940373037843746</v>
+        <v>0.004301244776008416</v>
       </c>
       <c r="F93">
-        <v>-0.03422916151090453</v>
+        <v>-0.03588550556976656</v>
       </c>
       <c r="G93">
-        <v>0.01980793008763995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.043761523901857</v>
+      </c>
+      <c r="H93">
+        <v>0.02898187265687077</v>
+      </c>
+      <c r="I93">
+        <v>0.05186225442621224</v>
+      </c>
+      <c r="J93">
+        <v>-0.08957516143677288</v>
+      </c>
+      <c r="K93">
+        <v>-0.01543870446432127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.04621165805927101</v>
+        <v>0.0778527388377508</v>
       </c>
       <c r="C94">
-        <v>-0.209573007357501</v>
+        <v>0.1626058344370985</v>
       </c>
       <c r="D94">
-        <v>-0.1531342504913609</v>
+        <v>0.1058869921606215</v>
       </c>
       <c r="E94">
-        <v>-0.2461430613061887</v>
+        <v>-0.025620897001108</v>
       </c>
       <c r="F94">
-        <v>0.1914911989514829</v>
+        <v>0.161239260260301</v>
       </c>
       <c r="G94">
-        <v>0.5629741372439985</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5423786024691808</v>
+      </c>
+      <c r="H94">
+        <v>-0.2208923690767435</v>
+      </c>
+      <c r="I94">
+        <v>0.05769165016371439</v>
+      </c>
+      <c r="J94">
+        <v>0.1845939553745971</v>
+      </c>
+      <c r="K94">
+        <v>0.2634518145638176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03687140083115266</v>
+        <v>0.03983042943011882</v>
       </c>
       <c r="C95">
-        <v>-0.09470052232920695</v>
+        <v>0.1277864381595402</v>
       </c>
       <c r="D95">
-        <v>-0.0356098378485089</v>
+        <v>0.05895154006108434</v>
       </c>
       <c r="E95">
-        <v>-0.02999728803372605</v>
+        <v>0.01683909911876755</v>
       </c>
       <c r="F95">
-        <v>0.08779674020897375</v>
+        <v>0.07559766882360532</v>
       </c>
       <c r="G95">
-        <v>-0.1097977959430308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05274696248123737</v>
+      </c>
+      <c r="H95">
+        <v>0.07512067582061047</v>
+      </c>
+      <c r="I95">
+        <v>-0.1288212046597062</v>
+      </c>
+      <c r="J95">
+        <v>0.1262600525620771</v>
+      </c>
+      <c r="K95">
+        <v>0.2440718384077204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0006053359635301026</v>
+        <v>0.01321621423646075</v>
       </c>
       <c r="C97">
-        <v>-0.0003884426127675397</v>
+        <v>0.01708430411396851</v>
       </c>
       <c r="D97">
-        <v>-0.0009613434457195683</v>
+        <v>-0.00944278893460275</v>
       </c>
       <c r="E97">
-        <v>-0.0008779266813995228</v>
+        <v>0.02897695082836288</v>
       </c>
       <c r="F97">
-        <v>-0.0002230677118520274</v>
+        <v>-0.009959270758765669</v>
       </c>
       <c r="G97">
-        <v>-0.001432997077933283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02062169279246584</v>
+      </c>
+      <c r="H97">
+        <v>0.04328856536265999</v>
+      </c>
+      <c r="I97">
+        <v>0.1273648606903828</v>
+      </c>
+      <c r="J97">
+        <v>0.07979156913797127</v>
+      </c>
+      <c r="K97">
+        <v>0.006821877459273014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08797547415726893</v>
+        <v>0.1314000519653038</v>
       </c>
       <c r="C98">
-        <v>-0.1550119724551172</v>
+        <v>0.1595667910558394</v>
       </c>
       <c r="D98">
-        <v>-0.1223549829309097</v>
+        <v>0.09061200375415296</v>
       </c>
       <c r="E98">
-        <v>-0.0733034424452261</v>
+        <v>-0.02709307182261117</v>
       </c>
       <c r="F98">
-        <v>0.09600918685896097</v>
+        <v>0.2146916625988075</v>
       </c>
       <c r="G98">
-        <v>-0.2838022818039406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3211386474497567</v>
+      </c>
+      <c r="H98">
+        <v>-0.3276086396401113</v>
+      </c>
+      <c r="I98">
+        <v>0.1123221706645872</v>
+      </c>
+      <c r="J98">
+        <v>-0.05788847057460698</v>
+      </c>
+      <c r="K98">
+        <v>-0.07333820124889479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01528060596692112</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.0484257297091381</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.006793396997417152</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01383409911130678</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.05310875810174519</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.0735110466519535</v>
+      </c>
+      <c r="H99">
+        <v>0.1235857067671485</v>
+      </c>
+      <c r="I99">
+        <v>0.8387044597984441</v>
+      </c>
+      <c r="J99">
+        <v>0.3217111194441117</v>
+      </c>
+      <c r="K99">
+        <v>-0.07089353799784762</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.007564586934897272</v>
+        <v>0.01404074882396905</v>
       </c>
       <c r="C101">
-        <v>-0.07260094359325314</v>
+        <v>0.08047651087760867</v>
       </c>
       <c r="D101">
-        <v>-0.03975969885721579</v>
+        <v>0.05266744097709201</v>
       </c>
       <c r="E101">
-        <v>0.03588143784292145</v>
+        <v>-0.05073824410838684</v>
       </c>
       <c r="F101">
-        <v>-4.151258643566328e-05</v>
+        <v>-0.005924314041353648</v>
       </c>
       <c r="G101">
-        <v>-0.08874128245033726</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1191913293892421</v>
+      </c>
+      <c r="H101">
+        <v>0.2915271408800342</v>
+      </c>
+      <c r="I101">
+        <v>0.01717040332220415</v>
+      </c>
+      <c r="J101">
+        <v>0.0287167515432107</v>
+      </c>
+      <c r="K101">
+        <v>0.1850734244687441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.006567549227537379</v>
+        <v>0.00258121265795801</v>
       </c>
       <c r="C102">
-        <v>-0.02353472656222743</v>
+        <v>0.009279963372050533</v>
       </c>
       <c r="D102">
-        <v>-0.002612167251583036</v>
+        <v>-0.0006113548107010604</v>
       </c>
       <c r="E102">
-        <v>-0.02114710222745054</v>
+        <v>-0.004137351487795078</v>
       </c>
       <c r="F102">
-        <v>0.02605442145356349</v>
+        <v>0.007713213582256248</v>
       </c>
       <c r="G102">
-        <v>-0.001987942381370115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.001705009741579123</v>
+      </c>
+      <c r="H102">
+        <v>-0.0002433250539657798</v>
+      </c>
+      <c r="I102">
+        <v>9.422042438402574e-05</v>
+      </c>
+      <c r="J102">
+        <v>0.01602997273823243</v>
+      </c>
+      <c r="K102">
+        <v>-0.004227792268959181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
